--- a/public/user_list.xlsx
+++ b/public/user_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>ticketAssigned</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>JDILKGFU</t>
@@ -302,6 +305,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -334,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -345,6 +351,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -569,7 +578,8 @@
     <col customWidth="1" min="6" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="10.13"/>
     <col customWidth="1" min="8" max="8" width="14.38"/>
-    <col customWidth="1" min="9" max="26" width="8.63"/>
+    <col customWidth="1" min="9" max="9" width="21.25"/>
+    <col customWidth="1" min="10" max="26" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -597,525 +607,588 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3">
         <v>40.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45173.0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3">
         <v>70.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45174.0</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3">
         <v>20.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45175.0</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3">
         <v>45.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45176.0</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3">
         <v>60.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45177.0</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3">
         <v>30.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45178.0</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3">
         <v>90.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45179.0</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3">
         <v>10.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45180.0</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3">
         <v>25.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45181.0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3">
         <v>58.0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45182.0</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3">
         <v>0.0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45183.0</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3">
         <v>90.0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45184.0</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3">
         <v>60.0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45185.0</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="3">
         <v>35.0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45186.0</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3">
         <v>40.0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45187.0</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="3">
         <v>13.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>45188.0</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3">
         <v>69.0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>45189.0</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="3">
         <v>33.0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45190.0</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3">
         <v>75.0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45191.0</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="3">
         <v>96.0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45192.0</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1"/>
